--- a/text/画面定義書_M0002購入依頼一覧画面.xlsx
+++ b/text/画面定義書_M0002購入依頼一覧画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA89AB3-1F89-4D16-881C-B9A3658A9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC1966-BB0D-46DF-9C6B-4C51B2913AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2426,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2849,7 +2849,7 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3282,9 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>

--- a/text/画面定義書_M0002購入依頼一覧画面.xlsx
+++ b/text/画面定義書_M0002購入依頼一覧画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC1966-BB0D-46DF-9C6B-4C51B2913AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2EF7EC-71F7-41E2-9361-4DA4A848C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -1457,180 +1457,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2451F99-4027-B0D9-B680-76B3FD949CC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7124700" y="1569720"/>
-          <a:ext cx="4122420" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50962"/>
-            <a:gd name="adj2" fmla="val 76117"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-            <a:t>demo:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-            <a:t>BL1003</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" kern="1200"/>
-            <a:t>を呼び出し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668AEAD2-0F27-40A9-B2E3-52E76CA7AC24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6751320" y="899160"/>
-          <a:ext cx="4122420" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50962"/>
-            <a:gd name="adj2" fmla="val 76117"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-            <a:t>demo:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-            <a:t>BL1003</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" kern="1200"/>
-            <a:t>を呼び出し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1920,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="D59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2172,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B7:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -2840,7 +2666,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3274,7 +3099,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3282,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
